--- a/course_schedule.xlsx
+++ b/course_schedule.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26221"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="12880" yWindow="0" windowWidth="25600" windowHeight="19020" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -73,19 +73,10 @@
     <t>Request Handling (Filters, URL Mapping, Plugins)</t>
   </si>
   <si>
-    <t>WebServices and REST</t>
-  </si>
-  <si>
     <t>Grails Services</t>
   </si>
   <si>
     <t>HTML, CSS, JavaScript, Bootstrap</t>
-  </si>
-  <si>
-    <t>Assignment Goals:
-* Contollers
-* REST Responses
-* Functional Testing</t>
   </si>
   <si>
     <t>JavaScript Tooling</t>
@@ -123,6 +114,16 @@
 * Unit testing
 * Integration testing
 * GORM</t>
+  </si>
+  <si>
+    <t>Security, WebServices and REST</t>
+  </si>
+  <si>
+    <t>Assignment Goals:
+* GORM Searching
+* Contollers
+* REST Responses
+* Functional Testing</t>
   </si>
 </sst>
 </file>
@@ -526,7 +527,7 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -610,7 +611,7 @@
         <v>6</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -638,7 +639,7 @@
         <v>42426</v>
       </c>
       <c r="D7" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -652,10 +653,10 @@
         <v>42434</v>
       </c>
       <c r="D8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="60">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="75">
       <c r="A9">
         <v>8</v>
       </c>
@@ -666,13 +667,13 @@
         <v>42440</v>
       </c>
       <c r="D9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E9" t="s">
         <v>7</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -691,7 +692,7 @@
         <v>42455</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -705,7 +706,7 @@
         <v>42461</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="60">
@@ -719,13 +720,13 @@
         <v>42469</v>
       </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E13" t="s">
         <v>8</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -739,7 +740,7 @@
         <v>42475</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -753,7 +754,7 @@
         <v>42483</v>
       </c>
       <c r="D15" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -773,13 +774,13 @@
         <v>42497</v>
       </c>
       <c r="D17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E17" t="s">
         <v>5</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
